--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>key</t>
   </si>
@@ -222,46 +222,52 @@
     <t>登录</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>d_0,8,16</t>
+  </si>
+  <si>
+    <t>道具背包</t>
+  </si>
+  <si>
+    <t>w_1,3,5|d_0</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>1:20</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>资源回收</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>商店-主界面</t>
+  </si>
+  <si>
     <t>d_0</t>
   </si>
   <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>d_0,8,16</t>
-  </si>
-  <si>
-    <t>道具背包</t>
-  </si>
-  <si>
-    <t>w_1,3,5|d_0</t>
-  </si>
-  <si>
-    <t>邮件</t>
-  </si>
-  <si>
-    <t>聊天</t>
-  </si>
-  <si>
-    <t>1:20</t>
+    <t>商店-研习社</t>
   </si>
   <si>
     <t>w_1,3,5,7|d_0,8,16</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>排行榜</t>
-  </si>
-  <si>
-    <t>影子</t>
-  </si>
-  <si>
-    <t>资源回收</t>
-  </si>
-  <si>
-    <t>商店</t>
   </si>
   <si>
     <t>活动-研习社</t>
@@ -278,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -313,67 +319,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,14 +384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -418,33 +415,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,12 +486,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,19 +606,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,145 +642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,17 +710,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,16 +755,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -761,8 +782,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,23 +802,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,145 +815,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1325,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1467,9 +1473,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="1" ht="16.5" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1479,13 +1483,13 @@
         <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="16.5" spans="1:7">
@@ -1496,13 +1500,13 @@
         <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="16.5" spans="1:7">
@@ -1513,13 +1517,13 @@
         <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
@@ -1530,16 +1534,14 @@
         <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="4" t="s">
@@ -1549,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1564,7 +1566,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1579,7 +1581,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1594,7 +1596,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1609,7 +1611,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1621,32 +1623,66 @@
         <v>26</v>
       </c>
       <c r="B16" s="5">
-        <v>200</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>10901</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="5">
-        <v>201</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>10902</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
+        <v>200</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <v>201</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="mail" sheetId="1" r:id="rId1"/>
+    <sheet name="function" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -284,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -311,68 +311,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,71 +439,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,187 +486,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,36 +711,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -751,6 +721,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,8 +754,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,18 +778,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -807,6 +792,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +827,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>key</t>
   </si>
@@ -246,6 +246,9 @@
     <t>活动</t>
   </si>
   <si>
+    <t>1:20,2:10010</t>
+  </si>
+  <si>
     <t>排行榜</t>
   </si>
   <si>
@@ -258,22 +261,28 @@
     <t>商店</t>
   </si>
   <si>
+    <t>d_0</t>
+  </si>
+  <si>
     <t>商店-主界面</t>
   </si>
   <si>
-    <t>d_0</t>
-  </si>
-  <si>
-    <t>商店-研习社</t>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>任务-主线</t>
+  </si>
+  <si>
+    <t>活动-研习社</t>
+  </si>
+  <si>
+    <t>活动-研习社-商店</t>
   </si>
   <si>
     <t>w_1,3,5,7|d_0,8,16</t>
   </si>
   <si>
-    <t>活动-研习社</t>
-  </si>
-  <si>
-    <t>1:20,2:10010</t>
+    <t>活动-研习社-任务</t>
   </si>
   <si>
     <t>活动背包</t>
@@ -284,9 +293,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -310,98 +319,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,9 +378,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +411,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -441,14 +428,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,43 +495,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,114 +663,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,18 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +719,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -725,13 +754,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,54 +816,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +836,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1331,16 +1340,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
@@ -1555,7 +1564,9 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
@@ -1566,7 +1577,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1581,7 +1592,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1596,7 +1607,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1611,12 +1622,14 @@
         <v>109</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" ht="16.5" spans="1:7">
       <c r="A16" s="4" t="s">
@@ -1626,47 +1639,41 @@
         <v>10901</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="5">
-        <v>10902</v>
+        <v>110</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="5">
-        <v>200</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>11001</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" ht="16.5" spans="1:7">
@@ -1674,15 +1681,64 @@
         <v>26</v>
       </c>
       <c r="B19" s="5">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20001</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20002</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5">
+        <v>201</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>key</t>
   </si>
@@ -209,11 +209,11 @@
   </si>
   <si>
     <t>DSL
-每日重置:d_0
-每日多时间点重置:d_0,8,16
-每周单日期重置:w_1(程序设置每周第一天)
-每周多日期重置:w_1,3,5,7
-每周多日期多时间点重置:w_1,3,5,7|d_0,8,16</t>
+每日重置:h_0
+每日多时间点重置:h_0,8,16
+每周单日期重置:dw_1(程序设置每周第一天)
+每周指定日期重置:dw_1,3,5,7
+每周指定日期及时间点重置:dw_1,3,5,7|h_0,8,16</t>
   </si>
   <si>
     <t>true</t>
@@ -225,24 +225,30 @@
     <t>角色</t>
   </si>
   <si>
-    <t>d_0,8,16</t>
+    <t>h_0_8_16</t>
   </si>
   <si>
     <t>道具背包</t>
   </si>
   <si>
-    <t>w_1,3,5|d_0</t>
+    <t>dw_1_3_5|h_0</t>
   </si>
   <si>
     <t>邮件</t>
   </si>
   <si>
+    <t>dw_2_4_6</t>
+  </si>
+  <si>
     <t>聊天</t>
   </si>
   <si>
     <t>1:20</t>
   </si>
   <si>
+    <t>dw_2_4_6|h_0_8_16</t>
+  </si>
+  <si>
     <t>活动</t>
   </si>
   <si>
@@ -261,7 +267,7 @@
     <t>商店</t>
   </si>
   <si>
-    <t>d_0</t>
+    <t>h_0</t>
   </si>
   <si>
     <t>商店-主界面</t>
@@ -279,7 +285,7 @@
     <t>活动-研习社-商店</t>
   </si>
   <si>
-    <t>w_1,3,5,7|d_0,8,16</t>
+    <t>dw_1_3_5_7|h_0_8_16</t>
   </si>
   <si>
     <t>活动-研习社-任务</t>
@@ -294,8 +300,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -320,7 +326,75 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -328,43 +402,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,25 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,64 +448,33 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -495,181 +501,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,15 +727,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -755,6 +752,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -769,17 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,8 +793,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,8 +817,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,145 +830,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1343,7 +1349,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1353,7 +1359,7 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
@@ -1532,7 +1538,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
@@ -1543,14 +1549,16 @@
         <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="4" t="s">
@@ -1560,12 +1568,12 @@
         <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -1577,7 +1585,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1592,7 +1600,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1607,7 +1615,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1622,13 +1630,13 @@
         <v>109</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:7">
@@ -1639,7 +1647,7 @@
         <v>10901</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1654,7 +1662,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1669,7 +1677,7 @@
         <v>11001</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1684,13 +1692,13 @@
         <v>200</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:7">
@@ -1701,13 +1709,13 @@
         <v>20001</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
@@ -1718,7 +1726,7 @@
         <v>20002</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1733,7 +1741,7 @@
         <v>201</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -202,13 +202,13 @@
 1:屏蔽</t>
   </si>
   <si>
-    <t xml:space="preserve">DSL
+    <t xml:space="preserve">DSL[与]
 1:等级解锁
 2:关卡解锁
 </t>
   </si>
   <si>
-    <t>DSL
+    <t>DSL(与)
 每日重置:h_0
 每日多时间点重置:h_0,8,16
 每周单日期重置:dw_1(程序设置每周第一天)
@@ -325,99 +325,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,9 +408,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,33 +447,34 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -501,19 +501,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,157 +657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,17 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,16 +740,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -783,9 +772,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,26 +799,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,16 +842,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,115 +860,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>key</t>
   </si>
@@ -202,9 +202,13 @@
 1:屏蔽</t>
   </si>
   <si>
-    <t xml:space="preserve">DSL[与]
+    <t xml:space="preserve">DSL
+支持与,或判断,最多2个条件
+空条件:无解锁条件
 1:等级解锁
 2:关卡解锁
+1:20|2:10010
+1:20&amp;2:10010
 </t>
   </si>
   <si>
@@ -252,7 +256,7 @@
     <t>活动</t>
   </si>
   <si>
-    <t>1:20,2:10010</t>
+    <t>1:20&amp;2:10010</t>
   </si>
   <si>
     <t>排行榜</t>
@@ -265,6 +269,9 @@
   </si>
   <si>
     <t>商店</t>
+  </si>
+  <si>
+    <t>1:20|2:10010</t>
   </si>
   <si>
     <t>h_0</t>
@@ -299,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -333,6 +340,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -340,15 +407,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,47 +422,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,18 +436,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,39 +460,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,13 +508,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,169 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +732,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -740,21 +771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -766,26 +782,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,17 +804,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,10 +837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1349,7 +1356,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1358,7 +1365,7 @@
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1634,9 +1641,11 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:7">
@@ -1647,7 +1656,7 @@
         <v>10901</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1662,7 +1671,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1677,7 +1686,7 @@
         <v>11001</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1692,13 +1701,13 @@
         <v>200</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:7">
@@ -1709,13 +1718,13 @@
         <v>20001</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
@@ -1726,7 +1735,7 @@
         <v>20002</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1741,7 +1750,7 @@
         <v>201</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>key</t>
   </si>
@@ -286,6 +286,9 @@
     <t>任务-主线</t>
   </si>
   <si>
+    <t>宠物</t>
+  </si>
+  <si>
     <t>活动-研习社</t>
   </si>
   <si>
@@ -306,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -332,6 +335,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -341,6 +359,98 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,134 +464,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -508,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +735,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -756,69 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -837,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1353,10 +1356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1634,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>42</v>
@@ -1653,7 +1656,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="5">
-        <v>10901</v>
+        <v>11001</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>45</v>
@@ -1668,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>46</v>
@@ -1683,7 +1686,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="5">
-        <v>11001</v>
+        <v>11101</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>47</v>
@@ -1698,33 +1701,31 @@
         <v>26</v>
       </c>
       <c r="B19" s="5">
-        <v>200</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="5">
-        <v>20001</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
@@ -1732,30 +1733,47 @@
         <v>26</v>
       </c>
       <c r="B21" s="5">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="5">
-        <v>201</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>20002</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5">
+        <v>201</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>key</t>
   </si>
@@ -147,6 +147,9 @@
     <t>reset</t>
   </si>
   <si>
+    <t>reddot</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t>重置类型</t>
+  </si>
+  <si>
+    <t>红点条件</t>
   </si>
   <si>
     <t>remark</t>
@@ -191,7 +197,14 @@
   <si>
     <t>功能唯一id
 策划填,通知程序
-或程序填,通知策划</t>
+或程序填,通知策划
+功能id:3位
+子功能id:5位</t>
+  </si>
+  <si>
+    <t>子功能划分
+按照UI入口划分,如通过商店入口进入主界面商店,所以主界面商店属于主界面的子功能
+对服务器来说,活动-研习社-商店隶属于商店系统, 研习社只是引用了商店系统.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -202,14 +215,35 @@
 1:屏蔽</t>
   </si>
   <si>
-    <t xml:space="preserve">DSL
+    <r>
+      <t xml:space="preserve">DSL
 支持与,或判断,最多2个条件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="0.6"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子功能解锁条件必须后于父功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 空条件:无解锁条件
 1:等级解锁
 2:关卡解锁
 1:20|2:10010
 1:20&amp;2:10010
 </t>
+    </r>
   </si>
   <si>
     <t>DSL(与)
@@ -220,6 +254,10 @@
 每周指定日期及时间点重置:dw_1,3,5,7|h_0,8,16</t>
   </si>
   <si>
+    <t>引用红点条件表,用于计算红点
+优先指向子功能,如没有子功能,指向父功能</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -286,6 +324,9 @@
     <t>任务-主线</t>
   </si>
   <si>
+    <t>[1001]</t>
+  </si>
+  <si>
     <t>宠物</t>
   </si>
   <si>
@@ -299,6 +340,9 @@
   </si>
   <si>
     <t>活动-研习社-任务</t>
+  </si>
+  <si>
+    <t>[1003]</t>
   </si>
   <si>
     <t>活动背包</t>
@@ -309,12 +353,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,37 +379,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,24 +439,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +462,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -426,29 +493,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -456,27 +523,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="5" tint="0.6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -511,37 +561,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,145 +717,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +785,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -765,21 +874,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -788,50 +882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1356,23 +1406,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,54 +1445,63 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1449,331 +1509,361 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="118" customHeight="1" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="118" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="16.5" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5">
         <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" customFormat="1" ht="16.5" spans="1:7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" customFormat="1" ht="16.5" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
         <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5">
         <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5">
         <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5">
         <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5">
         <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>110</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <v>11001</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5">
         <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <v>11101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5">
         <v>112</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5">
         <v>200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5">
         <v>20001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5">
         <v>20002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
+      <c r="H22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5">
         <v>201</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
+++ b/cat-zson/src/main/resources/excel/gn.功能控制.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>key</t>
   </si>
@@ -147,7 +147,7 @@
     <t>reset</t>
   </si>
   <si>
-    <t>reddot</t>
+    <t>reddots</t>
   </si>
   <si>
     <t>type</t>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
   <si>
     <t>output</t>
@@ -216,6 +219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">DSL
 支持与,或判断,最多2个条件
 </t>
@@ -353,9 +362,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -379,8 +388,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,9 +404,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,25 +427,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,16 +485,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,62 +524,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +570,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,169 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,22 +798,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,7 +807,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +819,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,25 +878,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,145 +899,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1409,7 +1418,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1463,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -1477,28 +1486,28 @@
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:8">
@@ -1509,59 +1518,59 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="16.5" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5">
         <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1571,105 +1580,105 @@
     </row>
     <row r="7" customFormat="1" ht="16.5" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5">
         <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="1" ht="16.5" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="1" ht="16.5" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5">
         <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5">
         <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5">
         <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1679,13 +1688,13 @@
     </row>
     <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5">
         <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1695,13 +1704,13 @@
     </row>
     <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5">
         <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1711,33 +1720,33 @@
     </row>
     <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5">
         <v>110</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>11001</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1747,13 +1756,13 @@
     </row>
     <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5">
         <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1763,31 +1772,31 @@
     </row>
     <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5">
         <v>11101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <v>112</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1797,67 +1806,67 @@
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5">
         <v>200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5">
         <v>20001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5">
         <v>20002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5">
         <v>201</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
